--- a/Python/Aiシステム.xlsx
+++ b/Python/Aiシステム.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGitProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGitProject\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAE672-4A45-47F5-99CF-E507F6A0FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484BF9D-2B50-4E7E-93B9-2FF76B6C4EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5037804D-13BC-4570-A0B0-48C218F307A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="203">
   <si>
     <t>https://camp.trainocate.co.jp/magazine/python_machine_learning/</t>
     <phoneticPr fontId="1"/>
@@ -4070,6 +4071,48 @@
   </si>
   <si>
     <t>Copyright © TRAINOCAMP All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>https://qiita.com/segavvy/items/4e8c36cac9c6f3543ffd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【サンプル有】Pythonで機械学習に挑戦しよう！ できることやライブラリ、実例も掲載</t>
+    <rPh sb="5" eb="6">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジツレイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロから作るDeep Learningで素人がつまずいたことメモ: まとめ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4288,15 +4331,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4379,6 +4428,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4388,7 +4497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4502,6 +4611,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6053,12 +6180,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF96147-B3AE-4B87-B507-6C788EA7D686}">
+  <dimension ref="B2:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="4" max="4" width="77.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="41">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{CA78785D-643E-4F70-BA46-6AEF58C16A99}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1BACBCE8-1F77-4D46-BFF8-54F2BBBD5C69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B139C0F-0E31-4CBF-AE7C-47B98DC304B6}">
   <dimension ref="B1:B521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
